--- a/bargeDetails10.xlsx
+++ b/bargeDetails10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFB9A09-8645-41F9-8501-B42CC88B8C46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C11119-5770-4646-B302-73376141AA4D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,10 +490,10 @@
         <v>4800</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="F3" s="1">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>4800</v>
@@ -597,11 +597,11 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>9600</v>
+        <v>14400</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>14400</v>
+        <v>9600</v>
       </c>
       <c r="G6" s="1">
         <f>SUM(G2:G4)</f>
